--- a/安全建设顺序-安全建设第四版.xlsx
+++ b/安全建设顺序-安全建设第四版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -1862,11 +1862,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="19.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -1943,7 +1943,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -1994,7 +1994,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2006,22 +2006,22 @@
   <sheetPr/>
   <dimension ref="A2:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="7.44545454545455" customWidth="1"/>
-    <col min="5" max="6" width="12.3363636363636" customWidth="1"/>
-    <col min="7" max="7" width="15.4454545454545" customWidth="1"/>
-    <col min="8" max="8" width="17.2181818181818" customWidth="1"/>
-    <col min="9" max="9" width="14.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="7.44444444444444" customWidth="1"/>
+    <col min="5" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="17.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="14" style="13" customWidth="1"/>
-    <col min="11" max="11" width="15.8909090909091" customWidth="1"/>
+    <col min="11" max="11" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="56" spans="1:12">
+    <row r="2" ht="57.6" spans="1:12">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2070,14 +2070,14 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2167,10 +2167,10 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2348,20 +2348,20 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="4" customWidth="1"/>
     <col min="2" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5454545454545" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5545454545455" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.2181818181818" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.8909090909091" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="3"/>
-    <col min="9" max="9" width="18.2181818181818" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="3"/>
+    <col min="4" max="4" width="21.5462962962963" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5555555555556" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.73148148148148" style="3"/>
+    <col min="9" max="9" width="18.2222222222222" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.73148148148148" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:9">
+    <row r="1" ht="28.8" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:6">
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>89</v>
@@ -2440,7 +2440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:6">
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:6">
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>98</v>
@@ -2472,7 +2472,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:6">
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:6">
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>106</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="42" spans="1:9">
+    <row r="14" s="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>117</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="42" spans="1:9">
+    <row r="15" s="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>121</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" ht="42" spans="1:6">
+    <row r="16" ht="43.2" spans="1:6">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>122</v>
@@ -2587,7 +2587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="42" spans="1:9">
+    <row r="18" s="3" customFormat="1" ht="43.2" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="F20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="28" spans="1:6">
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" ht="28" spans="1:5">
+    <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>135</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:6">
+    <row r="27" ht="28.8" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" ht="28" spans="1:5">
+    <row r="35" ht="28.8" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>157</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="1:4">
+    <row r="37" ht="28.8" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>159</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" ht="28" spans="1:1">
+    <row r="40" ht="28.8" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>162</v>
       </c>
@@ -2787,11 +2787,11 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
@@ -2807,7 +2807,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:4">
+    <row r="2" ht="28.8" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>77</v>
       </c>
@@ -2842,7 +2842,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" ht="28" spans="1:4">
+    <row r="6" ht="28.8" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" ht="126" spans="1:5">
+    <row r="15" ht="129.6" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>185</v>
@@ -2982,7 +2982,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:3">
+    <row r="22" ht="28.8" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>194</v>
@@ -3046,7 +3046,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" ht="28" spans="1:4">
+    <row r="30" ht="28.8" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -3180,11 +3180,11 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:3">
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>89</v>
@@ -3241,7 +3241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:3">
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>98</v>
@@ -3299,7 +3299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:3">
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>219</v>
@@ -3317,7 +3317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:3">
+    <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>123</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:3">
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>157</v>
       </c>
@@ -3417,12 +3417,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3652,7 +3652,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3684,42 +3684,42 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>260</v>
       </c>

--- a/安全建设顺序-安全建设第四版.xlsx
+++ b/安全建设顺序-安全建设第四版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -731,7 +731,7 @@
     <t>SOC系统收集WAF/异常日志等</t>
   </si>
   <si>
-    <t>渗透测试、自动化回归测试、网络攻击异常日志</t>
+    <t>渗透测试、自动化回归测试、日志（网马内存马正常日志，系统命令，返回值）</t>
   </si>
   <si>
     <t>渗透测试、自动化回归测试、合规检查</t>
@@ -2070,7 +2070,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3413,8 +3413,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
